--- a/lab5/Data_analysis.xlsx
+++ b/lab5/Data_analysis.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A74F99-738B-AE45-9B2B-450BC772DD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5013A99-762D-0D40-BE14-75AC17E1624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{013E3524-0223-374B-8896-BE28488107E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="heap1" localSheetId="0">Sheet1!$B$4:$C$33</definedName>
+    <definedName name="heap2" localSheetId="0">Sheet1!$D$4:$E$33</definedName>
+    <definedName name="heap3" localSheetId="0">Sheet1!$F$4:$G$33</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +39,37 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{14B16F9E-6232-9B4F-B2F1-02EEFE66D242}" name="heap1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap1.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{58A877D5-7023-B845-BD83-45805CDA2172}" name="heap2" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap2.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{D2E6FA77-4D23-684A-9B5A-76EC9705EE19}" name="heap3" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap3.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Build 1</t>
   </si>
@@ -45,11 +79,18 @@
   <si>
     <t>Build 3</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -79,10 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -99,6 +145,1316 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heap Construction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> methods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0181200000024497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.405720000136601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.24956000003465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1824.3105200001219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21508.560419999816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205912.47583999936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CBC-DA45-8210-CE93A539C7E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$44:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6441200000704117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.723780000139577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271.82080000002838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2774.6612399999945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29883.431619999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>278131.18823999946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CBC-DA45-8210-CE93A539C7E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$44:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$44:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9905800019823743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.906080000739138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>986.19572000188475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9965.7462600009494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135035.926299999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1827896.4335599903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CBC-DA45-8210-CE93A539C7E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1493494735"/>
+        <c:axId val="1493574687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1493494735"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of inputs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493574687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1493574687"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Taken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493494735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B8AEFF-5C1B-794C-ACD2-64CB1D658061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="heap3" connectionId="3" xr16:uid="{CB82AD12-8B32-F549-A7CF-1A24A98AC42D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="heap2" connectionId="2" xr16:uid="{D7B33C46-17D2-B141-8360-C2BCA5D8AC36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="heap1" connectionId="1" xr16:uid="{28D1F115-9320-4D4E-8D78-12E70CF6CB91}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,13 +1754,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7228C-442C-4948-B6FF-C34F3C4EC937}">
-  <dimension ref="B3:G3"/>
+  <dimension ref="A3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="81" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -420,12 +1784,979 @@
       </c>
       <c r="G3" s="1"/>
     </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.0126999999092701E-5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.3837000000526101E-5</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.1717000019379998E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.8275000002176899E-5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.1019000001842801E-5</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.5080999989768299E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.1784000000811802E-5</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.8946999993829599E-5</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.8558000028387997E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.6602000002308098E-5</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.49290000048563E-5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.7014000017497797E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.4117999995733E-5</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.34740000024658E-5</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.7159000044084597E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.7258399999775501E-4</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.8888599999987702E-4</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.1545800000194504E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.1899200000063899E-4</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.55402000000515E-4</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.7745700002651498E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4307600000051899E-4</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.268770000029E-4</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.1538599996756602E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.4013400000578699E-4</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.7752000000447099E-4</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.4413000003705704E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.4550000000213001E-4</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.8750399999921602E-4</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.4287300000387404E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.64661400000198E-3</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.4229660000045701E-3</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.9685350000413495E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.57564599999915E-3</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.47312300000146E-3</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8.8420580000274605E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.7356150000011801E-3</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.0478449999975501E-3</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.0160676999987499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.9177859999999201E-3</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.2323240000025001E-3</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.04489170000192E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.6868169999994999E-3</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.41478199999534E-3</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9.8895990000187305E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.7566518000002401E-2</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.7613821999999202E-2</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.103518371999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.86625030000016E-2</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.9666473999995401E-2</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.10337314100002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.9691432000001799E-2</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.7098991000002501E-2</v>
+      </c>
+      <c r="F21">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.3216635000032896E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.7874482999999899E-2</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.6946066999997201E-2</v>
+      </c>
+      <c r="F22">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.5306789000005596E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.7420590000000399E-2</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.7407708000005401E-2</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.10287237599999299</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.21405065100000001</v>
+      </c>
+      <c r="D24">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.29152688799999898</v>
+      </c>
+      <c r="F24">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.33758514200002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.204394195999995</v>
+      </c>
+      <c r="D25">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.296339252000002</v>
+      </c>
+      <c r="F25">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.39487391399995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>100000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.19793323599999699</v>
+      </c>
+      <c r="D26">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.29252483800000501</v>
+      </c>
+      <c r="F26">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.27403982000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>100000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.20355659500000201</v>
+      </c>
+      <c r="D27">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.31505456499999601</v>
+      </c>
+      <c r="F27">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.3374859989999599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>100000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.25549334299999699</v>
+      </c>
+      <c r="D28">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.29872603799999797</v>
+      </c>
+      <c r="F28">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.4078114399999799</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1000000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.0714799460000002</v>
+      </c>
+      <c r="D29">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.7801514919999901</v>
+      </c>
+      <c r="F29">
+        <v>1000000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>17.4803696849999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.0829312449999899</v>
+      </c>
+      <c r="D30">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.774690214</v>
+      </c>
+      <c r="F30">
+        <v>1000000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>18.4296178849999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1000000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.0632865919999901</v>
+      </c>
+      <c r="D31">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.7870473379999998</v>
+      </c>
+      <c r="F31">
+        <v>1000000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>18.5081041329999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1000000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.0397899519999898</v>
+      </c>
+      <c r="D32">
+        <v>1000000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.7771612089999902</v>
+      </c>
+      <c r="F32">
+        <v>1000000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>18.829747522999899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1000000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.038136057</v>
+      </c>
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.7875091589999901</v>
+      </c>
+      <c r="F33">
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>18.1469824519999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36">
+        <f>(AVERAGE(B4:B8))</f>
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" ref="C36:G36" si="0">(AVERAGE(C4:C8))</f>
+        <v>2.0181200000024499E-5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6441200000704118E-5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9905800019823742E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37">
+        <f>(AVERAGE(B9:B13))</f>
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:G37" si="1">(AVERAGE(C9:C13))</f>
+        <v>1.6405720000136601E-4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>2.6723780000139578E-4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>6.7906080000739138E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38">
+        <f>(AVERAGE(B14:B18))</f>
+        <v>1000</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:G38" si="2">(AVERAGE(C14:C18))</f>
+        <v>1.7124956000003464E-3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>2.7182080000002838E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>9.861957200018848E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39">
+        <f>(AVERAGE(B19:B23))</f>
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:G39" si="3">(AVERAGE(C19:C23))</f>
+        <v>1.8243105200001219E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>2.7746612399999943E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>9.9657462600009503E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40">
+        <f>(AVERAGE(B24:B28))</f>
+        <v>100000</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:G40" si="4">(AVERAGE(C24:C28))</f>
+        <v>0.21508560419999817</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>0.29883431619999995</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>1.3503592629999901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41">
+        <f>(AVERAGE(B29:B33))</f>
+        <v>1000000</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:G41" si="5">(AVERAGE(C29:C33))</f>
+        <v>2.0591247583999936</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>2.7813118823999945</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>18.278964335599902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <f>POWER(10,5)</f>
+        <v>100000</v>
+      </c>
+      <c r="B44">
+        <f>B36</f>
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <f>C36*$A$44</f>
+        <v>2.0181200000024497</v>
+      </c>
+      <c r="D44">
+        <f>D36</f>
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <f>E36*$A$44</f>
+        <v>2.6441200000704117</v>
+      </c>
+      <c r="F44">
+        <f>F36</f>
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <f>G36*$A$44</f>
+        <v>3.9905800019823743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f>B37</f>
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <f>C37*$A$44</f>
+        <v>16.405720000136601</v>
+      </c>
+      <c r="D45">
+        <f>D37</f>
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <f>E37*$A$44</f>
+        <v>26.723780000139577</v>
+      </c>
+      <c r="F45">
+        <f>F37</f>
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <f>G37*$A$44</f>
+        <v>67.906080000739138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f>B38</f>
+        <v>1000</v>
+      </c>
+      <c r="C46">
+        <f>C38*$A$44</f>
+        <v>171.24956000003465</v>
+      </c>
+      <c r="D46">
+        <f>D38</f>
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <f>E38*$A$44</f>
+        <v>271.82080000002838</v>
+      </c>
+      <c r="F46">
+        <f>F38</f>
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <f>G38*$A$44</f>
+        <v>986.19572000188475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>B39</f>
+        <v>10000</v>
+      </c>
+      <c r="C47">
+        <f>C39*$A$44</f>
+        <v>1824.3105200001219</v>
+      </c>
+      <c r="D47">
+        <f>D39</f>
+        <v>10000</v>
+      </c>
+      <c r="E47">
+        <f>E39*$A$44</f>
+        <v>2774.6612399999945</v>
+      </c>
+      <c r="F47">
+        <f>F39</f>
+        <v>10000</v>
+      </c>
+      <c r="G47">
+        <f>G39*$A$44</f>
+        <v>9965.7462600009494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f>B40</f>
+        <v>100000</v>
+      </c>
+      <c r="C48">
+        <f>C40*$A$44</f>
+        <v>21508.560419999816</v>
+      </c>
+      <c r="D48">
+        <f>D40</f>
+        <v>100000</v>
+      </c>
+      <c r="E48">
+        <f>E40*$A$44</f>
+        <v>29883.431619999996</v>
+      </c>
+      <c r="F48">
+        <f>F40</f>
+        <v>100000</v>
+      </c>
+      <c r="G48">
+        <f>G40*$A$44</f>
+        <v>135035.926299999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>B41</f>
+        <v>1000000</v>
+      </c>
+      <c r="C49">
+        <f>C41*$A$44</f>
+        <v>205912.47583999936</v>
+      </c>
+      <c r="D49">
+        <f>D41</f>
+        <v>1000000</v>
+      </c>
+      <c r="E49">
+        <f>E41*$A$44</f>
+        <v>278131.18823999946</v>
+      </c>
+      <c r="F49">
+        <f>F41</f>
+        <v>1000000</v>
+      </c>
+      <c r="G49">
+        <f>G41*$A$44</f>
+        <v>1827896.4335599903</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab5/Data_analysis.xlsx
+++ b/lab5/Data_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5013A99-762D-0D40-BE14-75AC17E1624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F5013A99-762D-0D40-BE14-75AC17E1624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{404F7FBB-8EA4-4DC2-8D2D-5B066C50F825}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{013E3524-0223-374B-8896-BE28488107E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013E3524-0223-374B-8896-BE28488107E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{14B16F9E-6232-9B4F-B2F1-02EEFE66D242}" name="heap1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap1.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap1.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -50,7 +50,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{58A877D5-7023-B845-BD83-45805CDA2172}" name="heap2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap2.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap2.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{D2E6FA77-4D23-684A-9B5A-76EC9705EE19}" name="heap3" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap3.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/heap3.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -88,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,13 +122,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,6 +192,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40068903519473864"/>
+          <c:y val="2.5097599029296012E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -263,6 +271,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.59442936921287814"/>
+                  <c:y val="0.13488240193903656"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$44:$B$49</c:f>
@@ -360,6 +418,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.59683064987068535"/>
+                  <c:y val="1.6722708090220927E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$44:$D$49</c:f>
@@ -457,6 +565,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.59731081146363818"/>
+                  <c:y val="-4.1695609599930435E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$F$44:$F$49</c:f>
@@ -1756,661 +1914,661 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7228C-442C-4948-B6FF-C34F3C4EC937}">
   <dimension ref="A3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="81" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2.0126999999092701E-5</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2.3837000000526101E-5</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>5.1717000019379998E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.8275000002176899E-5</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2.1019000001842801E-5</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2.5080999989768299E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.1784000000811802E-5</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1.8946999993829599E-5</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.8558000028387997E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.6602000002308098E-5</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>4.49290000048563E-5</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4.7014000017497797E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.4117999995733E-5</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>2.34740000024658E-5</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.7159000044084597E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1.7258399999775501E-4</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2.8888599999987702E-4</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>7.1545800000194504E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.1899200000063899E-4</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.55402000000515E-4</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>7.7745700002651498E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.4307600000051899E-4</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>2.268770000029E-4</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>7.1538599996756602E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1.4013400000578699E-4</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2.7752000000447099E-4</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>5.4413000003705704E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>100</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1.4550000000213001E-4</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2.8750399999921602E-4</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>6.4287300000387404E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.64661400000198E-3</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2.4229660000045701E-3</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>9.9685350000413495E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.57564599999915E-3</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2.47312300000146E-3</v>
       </c>
       <c r="F15">
         <v>1000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>8.8420580000274605E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1.7356150000011801E-3</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>3.0478449999975501E-3</v>
       </c>
       <c r="F16">
         <v>1000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1.0160676999987499E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1.9177859999999201E-3</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>3.2323240000025001E-3</v>
       </c>
       <c r="F17">
         <v>1000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>1.04489170000192E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.6868169999994999E-3</v>
       </c>
       <c r="D18">
         <v>1000</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>2.41478199999534E-3</v>
       </c>
       <c r="F18">
         <v>1000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>9.8895990000187305E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>10000</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1.7566518000002401E-2</v>
       </c>
       <c r="D19">
         <v>10000</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2.7613821999999202E-2</v>
       </c>
       <c r="F19">
         <v>10000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>0.103518371999996</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10000</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1.86625030000016E-2</v>
       </c>
       <c r="D20">
         <v>10000</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2.9666473999995401E-2</v>
       </c>
       <c r="F20">
         <v>10000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>0.10337314100002</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10000</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1.9691432000001799E-2</v>
       </c>
       <c r="D21">
         <v>10000</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2.7098991000002501E-2</v>
       </c>
       <c r="F21">
         <v>10000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>9.3216635000032896E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1.7874482999999899E-2</v>
       </c>
       <c r="D22">
         <v>10000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2.6946066999997201E-2</v>
       </c>
       <c r="F22">
         <v>10000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>9.5306789000005596E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>10000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>1.7420590000000399E-2</v>
       </c>
       <c r="D23">
         <v>10000</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>2.7407708000005401E-2</v>
       </c>
       <c r="F23">
         <v>10000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>0.10287237599999299</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>100000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.21405065100000001</v>
       </c>
       <c r="D24">
         <v>100000</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.29152688799999898</v>
       </c>
       <c r="F24">
         <v>100000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>1.33758514200002</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>100000</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.204394195999995</v>
       </c>
       <c r="D25">
         <v>100000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.296339252000002</v>
       </c>
       <c r="F25">
         <v>100000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>1.39487391399995</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>100000</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.19793323599999699</v>
       </c>
       <c r="D26">
         <v>100000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.29252483800000501</v>
       </c>
       <c r="F26">
         <v>100000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>1.27403982000004</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>100000</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.20355659500000201</v>
       </c>
       <c r="D27">
         <v>100000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.31505456499999601</v>
       </c>
       <c r="F27">
         <v>100000</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>1.3374859989999599</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>100000</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.25549334299999699</v>
       </c>
       <c r="D28">
         <v>100000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.29872603799999797</v>
       </c>
       <c r="F28">
         <v>100000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>1.4078114399999799</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1000000</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2.0714799460000002</v>
       </c>
       <c r="D29">
         <v>1000000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>2.7801514919999901</v>
       </c>
       <c r="F29">
         <v>1000000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>17.4803696849999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1000000</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.0829312449999899</v>
       </c>
       <c r="D30">
         <v>1000000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>2.774690214</v>
       </c>
       <c r="F30">
         <v>1000000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>18.4296178849999</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1000000</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2.0632865919999901</v>
       </c>
       <c r="D31">
         <v>1000000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2.7870473379999998</v>
       </c>
       <c r="F31">
         <v>1000000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>18.5081041329999</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1000000</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2.0397899519999898</v>
       </c>
       <c r="D32">
         <v>1000000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>2.7771612089999902</v>
       </c>
       <c r="F32">
         <v>1000000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>18.829747522999899</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1000000</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2.038136057</v>
       </c>
       <c r="D33">
         <v>1000000</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>2.7875091589999901</v>
       </c>
       <c r="F33">
         <v>1000000</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>18.1469824519999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
       <c r="B36">
         <f>(AVERAGE(B4:B8))</f>
         <v>10</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" ref="C36:G36" si="0">(AVERAGE(C4:C8))</f>
         <v>2.0181200000024499E-5</v>
       </c>
@@ -2418,7 +2576,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>2.6441200000704118E-5</v>
       </c>
@@ -2426,13 +2584,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f t="shared" si="0"/>
         <v>3.9905800019823742E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
       <c r="B37">
         <f>(AVERAGE(B9:B13))</f>
         <v>100</v>
@@ -2458,8 +2616,8 @@
         <v>6.7906080000739138E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
       <c r="B38">
         <f>(AVERAGE(B14:B18))</f>
         <v>1000</v>
@@ -2485,8 +2643,8 @@
         <v>9.861957200018848E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
       <c r="B39">
         <f>(AVERAGE(B19:B23))</f>
         <v>10000</v>
@@ -2512,8 +2670,8 @@
         <v>9.9657462600009503E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
       <c r="B40">
         <f>(AVERAGE(B24:B28))</f>
         <v>100000</v>
@@ -2539,8 +2697,8 @@
         <v>1.3503592629999901</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
       <c r="B41">
         <f>(AVERAGE(B29:B33))</f>
         <v>1000000</v>
@@ -2566,181 +2724,181 @@
         <v>18.278964335599902</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <f>POWER(10,5)</f>
         <v>100000</v>
       </c>
       <c r="B44">
-        <f>B36</f>
+        <f t="shared" ref="B44:B49" si="6">B36</f>
         <v>10</v>
       </c>
       <c r="C44">
-        <f>C36*$A$44</f>
+        <f t="shared" ref="C44:C49" si="7">C36*$A$44</f>
         <v>2.0181200000024497</v>
       </c>
       <c r="D44">
-        <f>D36</f>
+        <f t="shared" ref="D44:D49" si="8">D36</f>
         <v>10</v>
       </c>
       <c r="E44">
-        <f>E36*$A$44</f>
+        <f t="shared" ref="E44:E49" si="9">E36*$A$44</f>
         <v>2.6441200000704117</v>
       </c>
       <c r="F44">
-        <f>F36</f>
+        <f t="shared" ref="F44:F49" si="10">F36</f>
         <v>10</v>
       </c>
       <c r="G44">
-        <f>G36*$A$44</f>
+        <f t="shared" ref="G44:G49" si="11">G36*$A$44</f>
         <v>3.9905800019823743</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45">
-        <f>B37</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="C45">
-        <f>C37*$A$44</f>
+        <f t="shared" si="7"/>
         <v>16.405720000136601</v>
       </c>
       <c r="D45">
-        <f>D37</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E45">
-        <f>E37*$A$44</f>
+        <f t="shared" si="9"/>
         <v>26.723780000139577</v>
       </c>
       <c r="F45">
-        <f>F37</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G45">
-        <f>G37*$A$44</f>
+        <f t="shared" si="11"/>
         <v>67.906080000739138</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46">
-        <f>B38</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="C46">
-        <f>C38*$A$44</f>
+        <f t="shared" si="7"/>
         <v>171.24956000003465</v>
       </c>
       <c r="D46">
-        <f>D38</f>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E46">
-        <f>E38*$A$44</f>
+        <f t="shared" si="9"/>
         <v>271.82080000002838</v>
       </c>
       <c r="F46">
-        <f>F38</f>
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="G46">
-        <f>G38*$A$44</f>
+        <f t="shared" si="11"/>
         <v>986.19572000188475</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47">
-        <f>B39</f>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="C47">
-        <f>C39*$A$44</f>
+        <f t="shared" si="7"/>
         <v>1824.3105200001219</v>
       </c>
       <c r="D47">
-        <f>D39</f>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="E47">
-        <f>E39*$A$44</f>
+        <f t="shared" si="9"/>
         <v>2774.6612399999945</v>
       </c>
       <c r="F47">
-        <f>F39</f>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="G47">
-        <f>G39*$A$44</f>
+        <f t="shared" si="11"/>
         <v>9965.7462600009494</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48">
-        <f>B40</f>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="C48">
-        <f>C40*$A$44</f>
+        <f t="shared" si="7"/>
         <v>21508.560419999816</v>
       </c>
       <c r="D48">
-        <f>D40</f>
+        <f t="shared" si="8"/>
         <v>100000</v>
       </c>
       <c r="E48">
-        <f>E40*$A$44</f>
+        <f t="shared" si="9"/>
         <v>29883.431619999996</v>
       </c>
       <c r="F48">
-        <f>F40</f>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="G48">
-        <f>G40*$A$44</f>
+        <f t="shared" si="11"/>
         <v>135035.926299999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
-        <f>B41</f>
+        <f t="shared" si="6"/>
         <v>1000000</v>
       </c>
       <c r="C49">
-        <f>C41*$A$44</f>
+        <f t="shared" si="7"/>
         <v>205912.47583999936</v>
       </c>
       <c r="D49">
-        <f>D41</f>
+        <f t="shared" si="8"/>
         <v>1000000</v>
       </c>
       <c r="E49">
-        <f>E41*$A$44</f>
+        <f t="shared" si="9"/>
         <v>278131.18823999946</v>
       </c>
       <c r="F49">
-        <f>F41</f>
+        <f t="shared" si="10"/>
         <v>1000000</v>
       </c>
       <c r="G49">
-        <f>G41*$A$44</f>
+        <f t="shared" si="11"/>
         <v>1827896.4335599903</v>
       </c>
     </row>

--- a/lab5/Data_analysis.xlsx
+++ b/lab5/Data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F5013A99-762D-0D40-BE14-75AC17E1624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{404F7FBB-8EA4-4DC2-8D2D-5B066C50F825}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{F5013A99-762D-0D40-BE14-75AC17E1624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1182B9D-0A4B-4664-9398-8FE2B4440A75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013E3524-0223-374B-8896-BE28488107E4}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>Build 1</t>
   </si>
@@ -282,44 +282,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.59442936921287814"/>
-                  <c:y val="0.13488240193903656"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -429,44 +393,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.59683064987068535"/>
-                  <c:y val="1.6722708090220927E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -576,44 +504,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.59731081146363818"/>
-                  <c:y val="-4.1695609599930435E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1006,6 +898,859 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.172857988959901E-2"/>
+                  <c:y val="7.5759421132969712E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.20181200000024496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.164057200001366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17124956000003466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18243105200001219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21508560419999817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20591247583999936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5724-47F7-BF48-EBB0C947B86F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12286764114641069"/>
+                  <c:y val="-9.4773325593053556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$52:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26441200000704118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26723780000139574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2718208000000284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27746612399999943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29883431619999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27813118823999944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5724-47F7-BF48-EBB0C947B86F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.4956225691586203"/>
+                  <c:y val="0.43191498028664554"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.39905800019823745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67906080000739133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98619572000188471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99657462600009494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3503592629999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8278964335599903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5724-47F7-BF48-EBB0C947B86F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1617837375"/>
+        <c:axId val="1617836543"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$51:$E$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="1">
+                        <c:v>0.26441200000704118</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.26723780000139574</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.2718208000000284</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.27746612399999943</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.29883431619999995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.27813118823999944</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5724-47F7-BF48-EBB0C947B86F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$51:$F$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-5724-47F7-BF48-EBB0C947B86F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1617837375"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617836543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1617836543"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617837375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1046,7 +1791,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1595,6 +2896,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>343370</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>827852</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>188147</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DDA734-D452-4CE6-BBC4-422CD34D882F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1912,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7228C-442C-4948-B6FF-C34F3C4EC937}">
-  <dimension ref="A3:G49"/>
+  <dimension ref="A3:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2902,8 +4239,181 @@
         <v>1827896.4335599903</v>
       </c>
     </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f>B36</f>
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <f>C44/B36</f>
+        <v>0.20181200000024496</v>
+      </c>
+      <c r="D52">
+        <f>D36</f>
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <f>E44/D36</f>
+        <v>0.26441200000704118</v>
+      </c>
+      <c r="F52">
+        <f>F36</f>
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <f>G44/F36</f>
+        <v>0.39905800019823745</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f t="shared" ref="B53:B57" si="12">B37</f>
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C57" si="13">C45/B37</f>
+        <v>0.164057200001366</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D57" si="14">D37</f>
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E57" si="15">E45/D37</f>
+        <v>0.26723780000139574</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:F57" si="16">F37</f>
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53:G57" si="17">G45/F37</f>
+        <v>0.67906080000739133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="13"/>
+        <v>0.17124956000003466</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="15"/>
+        <v>0.2718208000000284</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="17"/>
+        <v>0.98619572000188471</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="shared" si="12"/>
+        <v>10000</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="13"/>
+        <v>0.18243105200001219</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="15"/>
+        <v>0.27746612399999943</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="17"/>
+        <v>0.99657462600009494</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="shared" si="12"/>
+        <v>100000</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="13"/>
+        <v>0.21508560419999817</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="14"/>
+        <v>100000</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="15"/>
+        <v>0.29883431619999995</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="16"/>
+        <v>100000</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="17"/>
+        <v>1.3503592629999901</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="shared" si="12"/>
+        <v>1000000</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="13"/>
+        <v>0.20591247583999936</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="14"/>
+        <v>1000000</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="15"/>
+        <v>0.27813118823999944</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="16"/>
+        <v>1000000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="17"/>
+        <v>1.8278964335599903</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:G43"/>
